--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,13 +756,31 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Esq eso era muy caro un riñón prácticamente ps pero vale la pena</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-11-25T05:11:04.000Z</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45986.21601851852</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>05:11:04</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -771,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rNHbd9q7SVWh9G4nsJ4svJGC8Yah7vURhpFjstsPUDmCs2CPndz4cAGeNBxsqpbxl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'pr</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -789,22 +807,40 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/?dco_ad_token=AaosSe9H41gtCEqtBNabGyvpOA_Gnaet8VJDJiSmkEWKx3rG2GCY0CLBgoPfwzSJRiKRp99TkK6eIDHV&amp;dco_ad_id=120238667020540295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/?dco_ad_token=AarHikoC5UUoA0bgalFYNz0h23HEuE-wKaH51wpliqrLcSkgB76-8h_DTvJiByJQWy05Fw9-PGU8xD3r&amp;dco_ad_id=120238666846930295</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/?dco_ad_token=AaosSe9H41gtCEqtBNabGyvpOA_Gnaet8VJDJiSmkEWKx3rG2GCY0CLBgoPfwzSJRiKRp99TkK6eIDHV&amp;dco_ad_id=120238667020540295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/?dco_ad_token=AarHikoC5UUoA0bgalFYNz0h23HEuE-wKaH51wpliqrLcSkgB76-8h_DTvJiByJQWy05Fw9-PGU8xD3r&amp;dco_ad_id=120238666846930295</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cuando eran ricos y traían más que aire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-11-25T04:34:17.000Z</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45986.19047453703</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>04:34:17</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -813,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rNHbd9q7SVWh9G4nsJ4svJGC8Yah7vURhpFjstsPUDmCs2CPndz4cAGeNBxsqpbxl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -831,39 +867,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/?dco_ad_token=AarHikoC5UUoA0bgalFYNz0h23HEuE-wKaH51wpliqrLcSkgB76-8h_DTvJiByJQWy05Fw9-PGU8xD3r&amp;dco_ad_id=120238666846930295</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/?dco_ad_token=AarHikoC5UUoA0bgalFYNz0h23HEuE-wKaH51wpliqrLcSkgB76-8h_DTvJiByJQWy05Fw9-PGU8xD3r&amp;dco_ad_id=120238666846930295</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Y la propaganda si quedo bien,, con ese precio ni uno se puede probar</t>
+          <t>Pos si como tres me da un coma diabético....</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-11-24T18:49:49.000Z</t>
+          <t>2025-11-25T03:23:08.000Z</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45985.78459490741</v>
+        <v>45986.14106481482</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>18:49:49</t>
+          <t>03:23:08</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -876,13 +912,13 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pgKop8CArR6hKcBCpXivENa97gyBxkV4Fmdwhy64Np1rxarBqLUp7cXQqq3vheoql?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede p</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rNHbd9q7SVWh9G4nsJ4svJGC8Yah7vURhpFjstsPUDmCs2CPndz4cAGeNBxsqpbxl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https://</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -891,40 +927,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/?dco_ad_token=AarHikoC5UUoA0bgalFYNz0h23HEuE-wKaH51wpliqrLcSkgB76-8h_DTvJiByJQWy05Fw9-PGU8xD3r&amp;dco_ad_id=120238666846930295</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/?dco_ad_token=AarHikoC5UUoA0bgalFYNz0h23HEuE-wKaH51wpliqrLcSkgB76-8h_DTvJiByJQWy05Fw9-PGU8xD3r&amp;dco_ad_id=120238666846930295</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Lástima lo inflado del precio</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-11-24T19:39:52.000Z</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>45985.81935185185</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>19:39:52</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -933,16 +951,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.c</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -951,40 +969,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/?dco_ad_token=AaosSe9H41gtCEqtBNabGyvpOA_Gnaet8VJDJiSmkEWKx3rG2GCY0CLBgoPfwzSJRiKRp99TkK6eIDHV&amp;dco_ad_id=120238667020540295</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/?dco_ad_token=AaosSe9H41gtCEqtBNabGyvpOA_Gnaet8VJDJiSmkEWKx3rG2GCY0CLBgoPfwzSJRiKRp99TkK6eIDHV&amp;dco_ad_id=120238667020540295</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Ese es peso pluma ?</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-11-24T19:08:34.000Z</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>45985.79761574074</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>45985</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>19:08:34</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -993,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.wil</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1011,34 +1011,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Inaccesible muy caro 🫰</t>
+          <t>Perfecto!!!!❤️</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-11-24T18:58:53.000Z</t>
+          <t>2025-11-25T03:25:21.000Z</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45985.7908912037</v>
+        <v>45986.14260416666</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>18:58:53</t>
+          <t>03:25:21</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1056,13 +1056,13 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fredy</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1071,39 +1071,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Como pasa el tiempo 😳</t>
+          <t>Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-11-24T18:39:10.000Z</t>
+          <t>2025-11-25T01:17:33.000Z</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45985.77719907407</v>
+        <v>45986.05385416667</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>18:39:10</t>
+          <t>01:17:33</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1116,13 +1116,13 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blur</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1131,39 +1131,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Eso para que SIRVE</t>
+          <t>Es verdad</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-11-24T18:37:25.000Z</t>
+          <t>2025-11-25T00:59:35.000Z</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45985.77598379629</v>
+        <v>45986.04137731482</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>18:37:25</t>
+          <t>00:59:35</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1176,13 +1176,13 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/peo</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaa</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1191,22 +1191,40 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:47:16.000Z</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45986.03282407407</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>00:47:16</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1215,40 +1233,58 @@
         <v>0</v>
       </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiar</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cuando valía 300 pesos</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:07:35.000Z</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45986.00526620371</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>00:07:35</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1257,40 +1293,58 @@
         <v>0</v>
       </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jim</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7oagGqD/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7oagGqD/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No, porque es una estafa, solo empaque y bien costoso</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:34:20.000Z</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45985.94050925926</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>22:34:20</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1299,40 +1353,58 @@
         <v>0</v>
       </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl'</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-11-24T21:56:14.000Z</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45985.91405092592</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>21:56:14</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1341,40 +1413,56 @@
         <v>0</v>
       </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, p</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/?dco_ad_token=Aap54Jsfml4pFZtV5oy-JjXIkUUyP7c5FZJFvvJB06dJI5BKwFpQAF-SJ5GxCyepWi08-IuBLRCJ-jQW&amp;dco_ad_id=120238665420160295</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Y la propaganda si quedo bien,, con ese precio ni uno se puede probar</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:49:49.000Z</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45985.78459490741</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>18:49:49</t>
+        </is>
+      </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1383,40 +1471,58 @@
         <v>0</v>
       </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0pgKop8CArR6hKcBCpXivENa97gyBxkV4Fmdwhy64Np1rxarBqLUp7cXQqq3vheoql?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede p</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmY2BAIwj/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmY2BAIwj/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Con esos precios na  gracias lo hago en casa me sale más barato  y más rico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-11-25T12:09:19.000Z</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45986.50646990741</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>12:09:19</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1425,40 +1531,58 @@
         <v>0</v>
       </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y m</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmcJbgDUW/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmcJbgDUW/#advertiser</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-11-25T11:28:52.000Z</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45986.47837962963</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>11:28:52</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1467,54 +1591,1960 @@
         <v>0</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, e</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>35 años robando a las familias... Excelente como se han enriquecido</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-11-25T11:25:29.000Z</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45986.47603009259</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>11:25:29</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido'</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>35 años vendiendo plástico, felicitaciones, que gran empresa</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-11-25T10:08:53.000Z</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45986.42283564815</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10:08:53</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profi</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BEBIDA LÁCTEA QUE NO ES YOGURT</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-11-25T07:48:46.000Z</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45986.32553240741</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>07:48:46</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Muy poquito para el valor! Se pasan...</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-11-25T05:44:34.000Z</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45986.2392824074</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>05:44:34</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-11-25T05:06:42.000Z</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45986.21298611111</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>05:06:42</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probar</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No les da verguenza, vivir del negocio d los alimentos y causar enfermedades con sus productos...</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-11-25T04:29:31.000Z</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45986.18716435185</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>04:29:31</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1382763526625753', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODI3NjM1MjY2MjU3NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgyNzYzNTI2NjI1NzUz', 'date': '2025-11-25T04:29:31.000Z', 'text': 'No les da verguenza, vivir del negocio d los alimentos y causar enfe</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>35 años vendiendo productos sobrevalorados, bravo!</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:13:53.000Z</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45986.1346412037</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>03:13:53</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5 lucas un bon yurt nee jeeedaaa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:02:34.000Z</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45986.12678240741</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>03:02:34</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://sconte</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tan bueno.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:23:58.000Z</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45986.09997685185</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>02:23:58</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Todo un lujo jjj</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:21:17.000Z</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45986.09811342593</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>02:21:17</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.ye</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Esa época cuando el yogurt  era el propio sin derivados de sueros</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:19:43.000Z</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45986.09702546296</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>02:19:43</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Este man no es el que hizo de Vaselino en vecinos?</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:31:24.000Z</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45986.06347222222</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>01:31:24</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt
+Y una señora toda elegante dice : en francés significa BUENOS DÍAS 
+Fue la primera palabra en otro idioma que aprendí gracias a ese marketing</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:17:30.000Z</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45986.05381944445</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>01:17:30</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree qu</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Semejante cara de bobo este personaje...</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:51:15.000Z</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45986.03559027778</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>00:51:15</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1178608700915001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzg2MDg3MDA5MTUwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc4NjA4NzAwOTE1MDAx', 'date': '2025-11-25T00:51:15.000Z', 'text': 'Semejante cara de bobo este personaje...', 'profilePicture': 'https:</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ojalá el precio también sea retro.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:51:12.000Z</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45986.03555555556</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>00:51:12</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.face</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Salió como a finales del 88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:08:11.000Z</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45986.00568287037</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>00:08:11</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.co</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Deberían más BN de bajar esos precios</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-11-24T23:29:34.000Z</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45985.97886574074</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>23:29:34</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.f</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-11-24T23:08:21.000Z</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45985.96413194444</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>23:08:21</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Que hpta joda tan cara. Rem@lpäridos abusadores</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:58:44.000Z</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45985.9574537037</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>22:58:44</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1505629667162278', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1MDU2Mjk2NjcxNjIyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTA1NjI5NjY3MTYyMjc4', 'date': '2025-11-24T22:58:44.000Z', 'text': 'Que hpta joda tan cara. Rem@lpäridos abusadores', 'profileUrl': 'htt</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Antes traía más , le undieron el fondo al envase</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:39:03.000Z</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45985.94378472222</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>22:39:03</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'ht</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Con ese precio mejor tomo aguapanelita con limon</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:21:36.000Z</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45985.93166666666</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>22:21:36</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-11-24T21:39:47.000Z</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45985.90262731481</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>21:39:47</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Lástima lo inflado del precio</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:39:52.000Z</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45985.81935185185</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>19:39:52</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.c</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ese es peso pluma ?</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:08:34.000Z</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45985.79761574074</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>19:08:34</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.wil</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Inaccesible muy caro 🫰</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:58:53.000Z</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45985.7908912037</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>18:58:53</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fredy</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Como pasa el tiempo 😳</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:39:10.000Z</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45985.77719907407</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>18:39:10</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blur</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/?dco_ad_token=AaopyITToC6BxlebNjeH4cfyFQz6YGCArzLkwpMIOk3MC8RGNDLlAghsYF59fSWGuZ04iZO44FQjwcD3&amp;dco_ad_id=120238664548120295</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Eso para que SIRVE</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:37:25.000Z</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45985.77598379629</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>18:37:25</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0ATaVeNanovBHfh8RQi46UWsJcFuLi3GQ6q2FyjUvs84AS4sX34m5Fujqw7SAKNpjl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/peo</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>12</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7oagGqD/#advertiser</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7oagGqD/#advertiser</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>13</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>14</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>15</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/#advertiser</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/#advertiser</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>16</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/#advertiser</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/#advertiser</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>17</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DRcmTd6gJGA/#advertiser</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DRcmTd6gJGA/#advertiser</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1702,13 +3732,17 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>45986.14106481482</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45986.21601851852</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1748,16 +3782,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45985.78459490741</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45985.78459490741</v>
+        <v>45986.14260416666</v>
       </c>
     </row>
     <row r="10">
@@ -1775,16 +3809,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45985.77598379629</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45985.81935185185</v>
+        <v>45986.50646990741</v>
       </c>
     </row>
     <row r="11">
@@ -2024,16 +4058,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +4081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,7 +4164,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/?dco_ad_token=AarHikoC5UUoA0bgalFYNz0h23HEuE-wKaH51wpliqrLcSkgB76-8h_DTvJiByJQWy05Fw9-PGU8xD3r&amp;dco_ad_id=120238666846930295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/?dco_ad_token=AaosSe9H41gtCEqtBNabGyvpOA_Gnaet8VJDJiSmkEWKx3rG2GCY0CLBgoPfwzSJRiKRp99TkK6eIDHV&amp;dco_ad_id=120238667020540295</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2142,7 +4176,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/?dco_ad_token=AaosSe9H41gtCEqtBNabGyvpOA_Gnaet8VJDJiSmkEWKx3rG2GCY0CLBgoPfwzSJRiKRp99TkK6eIDHV&amp;dco_ad_id=120238667020540295</t>
+          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2154,7 +4188,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://adsmanager.facebook.com/adsmanager/manage/ads?act=204764998104490&amp;business_id=1527284254245944&amp;global_scope_id=1527284254245944&amp;date=2025-11-24_2025-11-25&amp;insights_date=2025-11-24_2025-11-25&amp;selected_campaign_ids=120238665420150295&amp;selected_adset_ids=120238665420140295&amp;selected_ad_ids=120238665420160295</t>
+          <t>https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2166,7 +4200,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4T7oagGqD/#advertiser</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2178,7 +4212,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7oagGqD/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2190,7 +4224,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2202,7 +4236,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser</t>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/#advertiser</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2214,7 +4248,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmY2BAIwj/#advertiser</t>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/#advertiser</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2226,22 +4260,10 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmcJbgDUW/#advertiser</t>
+          <t>https://www.instagram.com/p/DRcmTd6gJGA/#advertiser</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>FAILED_ALL_ATTEMPTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRcmTd6gJGA/#advertiser</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
         <is>
           <t>FAILED_ALL_ATTEMPTS</t>
         </is>
@@ -2298,16 +4320,16 @@
         <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +769,7 @@
       <c r="H7" s="2" t="n">
         <v>45986.21601851852</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -777,10 +777,8 @@
           <t>05:11:04</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -829,7 +827,7 @@
       <c r="H8" s="2" t="n">
         <v>45986.19047453703</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -837,10 +835,8 @@
           <t>04:34:17</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -889,7 +885,7 @@
       <c r="H9" s="2" t="n">
         <v>45986.14106481482</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -897,10 +893,8 @@
           <t>03:23:08</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1033,7 +1027,7 @@
       <c r="H12" s="2" t="n">
         <v>45986.14260416666</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1041,10 +1035,8 @@
           <t>03:25:21</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1093,7 +1085,7 @@
       <c r="H13" s="2" t="n">
         <v>45986.05385416667</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1101,10 +1093,8 @@
           <t>01:17:33</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="K13" t="n">
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1153,7 +1143,7 @@
       <c r="H14" s="2" t="n">
         <v>45986.04137731482</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1161,10 +1151,8 @@
           <t>00:59:35</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1213,7 +1201,7 @@
       <c r="H15" s="2" t="n">
         <v>45986.03282407407</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1221,10 +1209,8 @@
           <t>00:47:16</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K15" t="n">
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1273,7 +1259,7 @@
       <c r="H16" s="2" t="n">
         <v>45986.00526620371</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1281,10 +1267,8 @@
           <t>00:07:35</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1333,7 +1317,7 @@
       <c r="H17" s="2" t="n">
         <v>45985.94050925926</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1341,10 +1325,8 @@
           <t>22:34:20</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K17" t="n">
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1393,7 +1375,7 @@
       <c r="H18" s="2" t="n">
         <v>45985.91405092592</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1401,10 +1383,8 @@
           <t>21:56:14</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="K18" t="n">
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1511,7 +1491,7 @@
       <c r="H20" s="2" t="n">
         <v>45986.50646990741</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1519,10 +1499,8 @@
           <t>12:09:19</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K20" t="n">
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1571,7 +1549,7 @@
       <c r="H21" s="2" t="n">
         <v>45986.47837962963</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1579,10 +1557,8 @@
           <t>11:28:52</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1631,7 +1607,7 @@
       <c r="H22" s="2" t="n">
         <v>45986.47603009259</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1639,10 +1615,8 @@
           <t>11:25:29</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1691,7 +1665,7 @@
       <c r="H23" s="2" t="n">
         <v>45986.42283564815</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1699,10 +1673,8 @@
           <t>10:08:53</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K23" t="n">
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1751,7 +1723,7 @@
       <c r="H24" s="2" t="n">
         <v>45986.32553240741</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1759,10 +1731,8 @@
           <t>07:48:46</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1811,7 +1781,7 @@
       <c r="H25" s="2" t="n">
         <v>45986.2392824074</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1819,10 +1789,8 @@
           <t>05:44:34</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1871,7 +1839,7 @@
       <c r="H26" s="2" t="n">
         <v>45986.21298611111</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -1879,10 +1847,8 @@
           <t>05:06:42</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K26" t="n">
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1931,7 +1897,7 @@
       <c r="H27" s="2" t="n">
         <v>45986.18716435185</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -1939,10 +1905,8 @@
           <t>04:29:31</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1991,7 +1955,7 @@
       <c r="H28" s="2" t="n">
         <v>45986.1346412037</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -1999,10 +1963,8 @@
           <t>03:13:53</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="K28" t="n">
+        <v>7</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2051,7 +2013,7 @@
       <c r="H29" s="2" t="n">
         <v>45986.12678240741</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2059,10 +2021,8 @@
           <t>03:02:34</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K29" t="n">
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2111,7 +2071,7 @@
       <c r="H30" s="2" t="n">
         <v>45986.09997685185</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2119,10 +2079,8 @@
           <t>02:23:58</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K30" t="n">
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2171,7 +2129,7 @@
       <c r="H31" s="2" t="n">
         <v>45986.09811342593</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2179,10 +2137,8 @@
           <t>02:21:17</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K31" t="n">
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2231,7 +2187,7 @@
       <c r="H32" s="2" t="n">
         <v>45986.09702546296</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2239,10 +2195,8 @@
           <t>02:19:43</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K32" t="n">
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2291,7 +2245,7 @@
       <c r="H33" s="2" t="n">
         <v>45986.06347222222</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2299,10 +2253,8 @@
           <t>01:31:24</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K33" t="n">
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2353,7 +2305,7 @@
       <c r="H34" s="2" t="n">
         <v>45986.05381944445</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2361,10 +2313,8 @@
           <t>01:17:30</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K34" t="n">
+        <v>2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2413,7 +2363,7 @@
       <c r="H35" s="2" t="n">
         <v>45986.03559027778</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2421,10 +2371,8 @@
           <t>00:51:15</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K35" t="n">
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2473,7 +2421,7 @@
       <c r="H36" s="2" t="n">
         <v>45986.03555555556</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2481,10 +2429,8 @@
           <t>00:51:12</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K36" t="n">
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2533,7 +2479,7 @@
       <c r="H37" s="2" t="n">
         <v>45986.00568287037</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2541,10 +2487,8 @@
           <t>00:08:11</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K37" t="n">
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2593,7 +2537,7 @@
       <c r="H38" s="2" t="n">
         <v>45985.97886574074</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2601,10 +2545,8 @@
           <t>23:29:34</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K38" t="n">
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2653,7 +2595,7 @@
       <c r="H39" s="2" t="n">
         <v>45985.96413194444</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2661,10 +2603,8 @@
           <t>23:08:21</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K39" t="n">
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2713,7 +2653,7 @@
       <c r="H40" s="2" t="n">
         <v>45985.9574537037</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2721,10 +2661,8 @@
           <t>22:58:44</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K40" t="n">
+        <v>2</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2773,7 +2711,7 @@
       <c r="H41" s="2" t="n">
         <v>45985.94378472222</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J41" t="inlineStr">
@@ -2781,10 +2719,8 @@
           <t>22:39:03</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K41" t="n">
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2833,7 +2769,7 @@
       <c r="H42" s="2" t="n">
         <v>45985.93166666666</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J42" t="inlineStr">
@@ -2841,10 +2777,8 @@
           <t>22:21:36</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="K42" t="n">
+        <v>13</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2893,7 +2827,7 @@
       <c r="H43" s="2" t="n">
         <v>45985.90262731481</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -2901,10 +2835,8 @@
           <t>21:39:47</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K43" t="n">
+        <v>2</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3545,6 +3477,3014 @@
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>18</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>19</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>21</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>22</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>23</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Esq eso era muy caro un riñón prácticamente ps pero vale la pena</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2025-11-25T05:11:04.000Z</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>45986.21601851852</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>05:11:04</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rNHbd9q7SVWh9G4nsJ4svJGC8Yah7vURhpFjstsPUDmCs2CPndz4cAGeNBxsqpbxl?comment_id=861351922903088', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg2MTM1MTkyMjkwMzA4OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NjEzNTE5MjI5MDMwODg=', 'date': '2025-11-25T05:11:04.000Z', 'text': 'Esq eso era muy caro un riñón prácticamente ps pero vale la pena', 'pr</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>23</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Cuando eran ricos y traían más que aire</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-11-25T04:34:17.000Z</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45986.19047453703</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>04:34:17</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rNHbd9q7SVWh9G4nsJ4svJGC8Yah7vURhpFjstsPUDmCs2CPndz4cAGeNBxsqpbxl?comment_id=1820814188796053', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzE4MjA4MTQxODg3OTYwNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV8xODIwODE0MTg4Nzk2MDUz', 'date': '2025-11-25T04:34:17.000Z', 'text': 'Cuando eran ricos y traían más que aire', 'profileUrl': 'https://www.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>23</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Pos si como tres me da un coma diabético....</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:23:08.000Z</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45986.14106481482</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>03:23:08</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258767229622355/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid0rNHbd9q7SVWh9G4nsJ4svJGC8Yah7vURhpFjstsPUDmCs2CPndz4cAGeNBxsqpbxl?comment_id=843566781589283', 'id': 'Y29tbWVudDoxMjU4NzY3NzY5NjIyMzAxXzg0MzU2Njc4MTU4OTI4Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODc2Nzc2OTYyMjMwMV84NDM1NjY3ODE1ODkyODM=', 'date': '2025-11-25T03:23:08.000Z', 'text': 'Pos si como tres me da un coma diabético....', 'profileUrl': 'https://</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>25</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Perfecto!!!!❤️</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:25:21.000Z</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45986.14260416666</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>03:25:21</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1952455178667084', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE5NTI0NTUxNzg2NjcwODQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xOTUyNDU1MTc4NjY3MDg0', 'date': '2025-11-25T03:25:21.000Z', 'text': 'Perfecto!!!!❤️', 'profileUrl': 'https://www.facebook.com/rosa.lopez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>25</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Antes de conocer la diabetes eras mi snack favorito y como a alpina LE QUEDO GRANDE sacar productos saludables....... Paila!</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:17:33.000Z</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45986.05385416667</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>01:17:33</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1520253749021206', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1MjAyNTM3NDkwMjEyMDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTIwMjUzNzQ5MDIxMjA2', 'date': '2025-11-25T01:17:33.000Z', 'text': 'Antes de conocer la diabetes eras mi snack favorito y como a alpina </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>25</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Es verdad</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:59:35.000Z</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45986.04137731482</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>00:59:35</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1576500203505837', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE1NzY1MDAyMDM1MDU4Mzc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNTc2NTAwMjAzNTA1ODM3', 'date': '2025-11-25T00:59:35.000Z', 'text': 'Es verdad', 'profileUrl': 'https://www.facebook.com/marcela.cardonaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>25</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:47:16.000Z</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45986.03282407407</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>00:47:16</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=819552860968519', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzgxOTU1Mjg2MDk2ODUxOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM184MTk1NTI4NjA5Njg1MTk=', 'date': '2025-11-25T00:47:16.000Z', 'text': '777', 'profileUrl': 'https://www.facebook.com/margarita.gomezanichiar</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>25</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Cuando valía 300 pesos</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:07:35.000Z</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>45986.00526620371</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>00:07:35</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1475494833548118', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzE0NzU0OTQ4MzM1NDgxMTg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xNDc1NDk0ODMzNTQ4MTE4', 'date': '2025-11-25T00:07:35.000Z', 'text': 'Cuando valía 300 pesos', 'profileUrl': 'https://www.facebook.com/jim</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>25</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No, porque es una estafa, solo empaque y bien costoso</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:34:20.000Z</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45985.94050925926</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>22:34:20</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1260657349235501', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzEyNjA2NTczNDkyMzU1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMjYwNjU3MzQ5MjM1NTAx', 'date': '2025-11-24T22:34:20.000Z', 'text': 'No, porque es una estafa, solo empaque y bien costoso', 'profileUrl'</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>25</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, poco  y demasiado dulce.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-11-24T21:56:14.000Z</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>45985.91405092592</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>21:56:14</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=1192728072737622', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzExOTI3MjgwNzI3Mzc2MjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18xMTkyNzI4MDcyNzM3NjIy', 'date': '2025-11-24T21:56:14.000Z', 'text': 'No han pensado en mejorar la fórmula? Para mi gusto es muy aguado, p</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>25</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Y la propaganda si quedo bien,, con ese precio ni uno se puede probar</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:49:49.000Z</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45985.78459490741</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>18:49:49</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258765426289202/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02t3ozS9YntAi4A6tsJR9D7U7SGvkveBhwqRPJgB4xkvAAc9xoiEbXmogmPCnQ3zePl?comment_id=25132294313095996', 'id': 'Y29tbWVudDoxMjU4NzI2ODgyOTU5NzIzXzI1MTMyMjk0MzEzMDk1OTk2', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyNjg4Mjk1OTcyM18yNTEzMjI5NDMxMzA5NTk5Ng==', 'date': '2025-11-24T18:49:49.000Z', 'text': 'Y la propaganda si quedo bien,, con ese precio ni uno se puede </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>26</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Alpina, los mejores lácteos de Colombia</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-11-25T14:08:33.000Z</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45986.58927083333</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>14:08:33</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152499160382981', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI0OTkxNjAzODI5ODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyNDk5MTYwMzgyOTgx', 'date': '2025-11-25T14:08:33.000Z', 'text': 'Alpina, los mejores lácteos de Colombia', 'profileUrl': 'https://www</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>26</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Con esos precios na  gracias lo hago en casa me sale más barato  y más rico</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-11-25T12:09:19.000Z</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>45986.50646990741</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>12:09:19</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2045961822830627', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNDU5NjE4MjI4MzA2Mjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDQ1OTYxODIyODMwNjI3', 'date': '2025-11-25T12:09:19.000Z', 'text': 'Con esos precios na  gracias lo hago en casa me sale más barato  y m</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>26</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, el azúcar comida de muchas enfermedades entre ellas el cáncer, alimento ultraprocesado que hacen pasar por un alimento saludable  y ahora quien quiere contaminar a sus hijos o dañar sus sistemas digestivos .... Consume bon yurt te ayuda a estar mal si o si .........</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-11-25T11:28:52.000Z</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>45986.47837962963</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>11:28:52</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=740299422427121', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0MDI5OTQyMjQyNzEyMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDAyOTk0MjI0MjcxMjE=', 'date': '2025-11-25T11:28:52.000Z', 'text': 'Un mundo lleno de azúcar con seres humanos enfermos por esto mismo, e</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>26</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>35 años robando a las familias... Excelente como se han enriquecido</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-11-25T11:25:29.000Z</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>45986.47603009259</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>11:25:29</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1557146152191245', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1NTcxNDYxNTIxOTEyNDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTU3MTQ2MTUyMTkxMjQ1', 'date': '2025-11-25T11:25:29.000Z', 'text': '35 años robando a las familias... Excelente como se han enriquecido'</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>26</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>35 años vendiendo plástico, felicitaciones, que gran empresa</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-11-25T10:08:53.000Z</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>45986.42283564815</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>10:08:53</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=837830755559105', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgzNzgzMDc1NTU1OTEwNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mzc4MzA3NTU1NTkxMDU=', 'date': '2025-11-25T10:08:53.000Z', 'text': '35 años vendiendo plástico, felicitaciones, que gran empresa', 'profi</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>26</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>BEBIDA LÁCTEA QUE NO ES YOGURT</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-11-25T07:48:46.000Z</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>45986.32553240741</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>07:48:46</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1351672526428164', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzNTE2NzI1MjY0MjgxNjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzUxNjcyNTI2NDI4MTY0', 'date': '2025-11-25T07:48:46.000Z', 'text': 'BEBIDA LÁCTEA QUE NO ES YOGURT', 'profileUrl': 'https://www.facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>26</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Muy poquito para el valor! Se pasan...</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-11-25T05:44:34.000Z</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>45986.2392824074</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>05:44:34</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1616838652836190', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE2MTY4Mzg2NTI4MzYxOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNjE2ODM4NjUyODM2MTkw', 'date': '2025-11-25T05:44:34.000Z', 'text': 'Muy poquito para el valor! Se pasan...', 'profileUrl': 'https://www.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>26</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sobrevalorado, es rico siii pero fácilmente me pasan años sin probarlo, su precio aleja para ser tan básico</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-11-25T05:06:42.000Z</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>45986.21298611111</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>05:06:42</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1306741007870493', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzMDY3NDEwMDc4NzA0OTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzA2NzQxMDA3ODcwNDkz', 'date': '2025-11-25T05:06:42.000Z', 'text': 'Sobrevalorado, es rico siii pero fácilmente me pasan años sin probar</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>26</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No les da verguenza, vivir del negocio d los alimentos y causar enfermedades con sus productos...</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-11-25T04:29:31.000Z</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>45986.18716435185</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>04:29:31</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1382763526625753', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODI3NjM1MjY2MjU3NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgyNzYzNTI2NjI1NzUz', 'date': '2025-11-25T04:29:31.000Z', 'text': 'No les da verguenza, vivir del negocio d los alimentos y causar enfe</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>26</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>35 años vendiendo productos sobrevalorados, bravo!</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:13:53.000Z</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>45986.1346412037</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>03:13:53</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1152991517044181', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNTI5OTE1MTcwNDQxODE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTUyOTkxNTE3MDQ0MTgx', 'date': '2025-11-25T03:13:53.000Z', 'text': '35 años vendiendo productos sobrevalorados, bravo!', 'profilePicture</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>26</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5 lucas un bon yurt nee jeeedaaa</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-11-25T03:02:34.000Z</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>45986.12678240741</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>03:02:34</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2057651748323375', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNTc2NTE3NDgzMjMzNzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDU3NjUxNzQ4MzIzMzc1', 'date': '2025-11-25T03:02:34.000Z', 'text': '5 lucas un bon yurt nee jeeedaaa', 'profilePicture': 'https://sconte</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>26</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Tan bueno.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:23:58.000Z</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>45986.09997685185</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>02:23:58</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1388063563103759', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODgwNjM1NjMxMDM3NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg4MDYzNTYzMTAzNzU5', 'date': '2025-11-25T02:23:58.000Z', 'text': 'Tan bueno.', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>26</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Todo un lujo jjj</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:21:17.000Z</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>45986.09811342593</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>02:21:17</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=829854586452459', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgyOTg1NDU4NjQ1MjQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184Mjk4NTQ1ODY0NTI0NTk=', 'date': '2025-11-25T02:21:17.000Z', 'text': 'Todo un lujo jjj', 'profileUrl': 'https://www.facebook.com/luzbell.ye</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>26</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Esa época cuando el yogurt  era el propio sin derivados de sueros</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-11-25T02:19:43.000Z</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>45986.09702546296</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>02:19:43</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1177485643784836', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzc0ODU2NDM3ODQ4MzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc3NDg1NjQzNzg0ODM2', 'date': '2025-11-25T02:19:43.000Z', 'text': 'Esa época cuando el yogurt  era el propio sin derivados de sueros', </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>26</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Este man no es el que hizo de Vaselino en vecinos?</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:31:24.000Z</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>45986.06347222222</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>01:31:24</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1383064816735090', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODMwNjQ4MTY3MzUwOTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzgzMDY0ODE2NzM1MDkw', 'date': '2025-11-25T01:31:24.000Z', 'text': 'Este man no es el que hizo de Vaselino en vecinos?', 'profilePicture</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>26</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Me acordé de la propaganda que le preguntaban a la gente que cree que es bon yurt
+Y una señora toda elegante dice : en francés significa BUENOS DÍAS 
+Fue la primera palabra en otro idioma que aprendí gracias a ese marketing</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-11-25T01:17:30.000Z</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>45986.05381944445</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>01:17:30</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2077627949641833', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIwNzc2Mjc5NDk2NDE4MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMDc3NjI3OTQ5NjQxODMz', 'date': '2025-11-25T01:17:30.000Z', 'text': 'Me acordé de la propaganda que le preguntaban a la gente que cree qu</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>26</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Semejante cara de bobo este personaje...</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:51:15.000Z</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>45986.03559027778</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>00:51:15</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1178608700915001', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNzg2MDg3MDA5MTUwMDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTc4NjA4NzAwOTE1MDAx', 'date': '2025-11-25T00:51:15.000Z', 'text': 'Semejante cara de bobo este personaje...', 'profilePicture': 'https:</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>26</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Ojalá el precio también sea retro.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:51:12.000Z</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>45986.03555555556</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>00:51:12</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1597679538060212', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1OTc2Nzk1MzgwNjAyMTI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTk3Njc5NTM4MDYwMjEy', 'date': '2025-11-25T00:51:12.000Z', 'text': 'Ojalá el precio también sea retro.', 'profileUrl': 'https://www.face</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>26</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Salió como a finales del 88</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-11-25T00:08:11.000Z</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>45986.00568287037</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>00:08:11</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=2154810411989541', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzIxNTQ4MTA0MTE5ODk1NDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yMTU0ODEwNDExOTg5NTQx', 'date': '2025-11-25T00:08:11.000Z', 'text': 'Salió como a finales del 88', 'profileUrl': 'https://www.facebook.co</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>26</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Deberían más BN de bajar esos precios</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-11-24T23:29:34.000Z</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>45985.97886574074</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>23:29:34</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1180817223396975', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExODA4MTcyMjMzOTY5NzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTgwODE3MjIzMzk2OTc1', 'date': '2025-11-24T23:29:34.000Z', 'text': 'Deberían más BN de bajar esos precios', 'profileUrl': 'https://www.f</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>26</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-11-24T23:08:21.000Z</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>45985.96413194444</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>23:08:21</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1141110784879560', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDExMTA3ODQ4Nzk1NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQxMTEwNzg0ODc5NTYw', 'date': '2025-11-24T23:08:21.000Z', 'text': 'Ahora el precio es el del 2035, qué gonorrea si es caro un bon yurt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>26</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Que hpta joda tan cara. Rem@lpäridos abusadores</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:58:44.000Z</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>45985.9574537037</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>22:58:44</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1505629667162278', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE1MDU2Mjk2NjcxNjIyNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xNTA1NjI5NjY3MTYyMjc4', 'date': '2025-11-24T22:58:44.000Z', 'text': 'Que hpta joda tan cara. Rem@lpäridos abusadores', 'profileUrl': 'htt</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>26</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Antes traía más , le undieron el fondo al envase</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:39:03.000Z</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>45985.94378472222</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>22:39:03</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=3091916754347395', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzMwOTE5MTY3NTQzNDczOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18zMDkxOTE2NzU0MzQ3Mzk1', 'date': '2025-11-24T22:39:03.000Z', 'text': 'Antes traía más , le undieron el fondo al envase', 'profileUrl': 'ht</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>26</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Con ese precio mejor tomo aguapanelita con limon</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025-11-24T22:21:36.000Z</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>45985.93166666666</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>22:21:36</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=809611618734196', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzgwOTYxMTYxODczNDE5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184MDk2MTE2MTg3MzQxOTY=', 'date': '2025-11-24T22:21:36.000Z', 'text': 'Con ese precio mejor tomo aguapanelita con limon', 'profilePicture': </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>26</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Yurt... Bon Yurt..."</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025-11-24T21:39:47.000Z</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>45985.90262731481</v>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>21:39:47</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1871869833723454', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzE4NzE4Njk4MzM3MjM0NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xODcxODY5ODMzNzIzNDU0', 'date': '2025-11-24T21:39:47.000Z', 'text': 'Recuerdo esa primera propaganda: "¿Sabe usted qué es Bon Yurt? Bon Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>26</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Lástima lo inflado del precio</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:39:52.000Z</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>45985.81935185185</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>19:39:52</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1149425460681635', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzExNDk0MjU0NjA2ODE2MzU=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMTQ5NDI1NDYwNjgxNjM1', 'date': '2025-11-24T19:39:52.000Z', 'text': 'Lástima lo inflado del precio', 'profileUrl': 'https://www.facebook.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>26</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Ese es peso pluma ?</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:08:34.000Z</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>45985.79761574074</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>19:08:34</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=745583734460698', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzc0NTU4MzczNDQ2MDY5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N183NDU1ODM3MzQ0NjA2OTg=', 'date': '2025-11-24T19:08:34.000Z', 'text': 'Ese es peso pluma ?', 'profileUrl': 'https://www.facebook.com/mike.wi</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>26</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Inaccesible muy caro 🫰</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:58:53.000Z</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>45985.7908912037</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>18:58:53</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=860109699855760', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3Xzg2MDEwOTY5OTg1NTc2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N184NjAxMDk2OTk4NTU3NjA=', 'date': '2025-11-24T18:58:53.000Z', 'text': 'Inaccesible muy caro 🫰', 'profileUrl': 'https://www.facebook.com/fred</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>26</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Como pasa el tiempo 😳</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:39:10.000Z</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>45985.77719907407</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>18:39:10</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=1387173373123562', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzEzODcxNzMzNzMxMjM1NjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18xMzg3MTczMzczMTIzNTYy', 'date': '2025-11-24T18:39:10.000Z', 'text': 'Como pasa el tiempo 😳', 'attachments': [{'__typename': 'Photo', 'blu</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>26</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Eso para que SIRVE</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025-11-24T18:37:25.000Z</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>45985.77598379629</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>45985</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>18:37:25</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064672685926/posts/1258766696289075/', 'commentUrl': 'https://www.facebook.com/AlpinaBonYurt/posts/pfbid02EK2Cq3WcfNoJ9BcmvayDw54Nx8sEwTMQykarRkdE2psKYodQjRNg1A7hsaY4pXBEl?comment_id=24232223896453338', 'id': 'Y29tbWVudDoxMjU4NzIxNTQyOTYwMjU3XzI0MjMyMjIzODk2NDUzMzM4', 'feedbackId': 'ZmVlZGJhY2s6MTI1ODcyMTU0Mjk2MDI1N18yNDIzMjIyMzg5NjQ1MzMzOA==', 'date': '2025-11-24T18:37:25.000Z', 'text': 'Eso para que SIRVE', 'profileUrl': 'https://www.facebook.com/pe</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>27</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7rtgIL6/</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7rtgIL6/</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>28</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7oagGqD/</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7oagGqD/</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>29</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4TbcNAFUD/</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4TbcNAFUD/</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>30</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T6V_AAuu/</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T6V_AAuu/</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>31</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>32</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>33</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmTd6gJGA/</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmTd6gJGA/</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3557,7 +6497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4004,6 +6944,386 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767229622355/</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45986.14106481482</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45986.21601851852</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258765426289202/</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45985.78459490741</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45986.14260416666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064672685926/posts/1258766696289075/</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>30</v>
+      </c>
+      <c r="E27" t="n">
+        <v>42</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45985.77598379629</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45986.58927083333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7rtgIL6/</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T7oagGqD/</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4TbcNAFUD/</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ4T6V_AAuu/</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRcmTd6gJGA/</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4058,16 +7378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4104,7 +7424,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/?dco_ad_token=AaqJ8z2f3GnDAp4tQmYKKFNmaiee4fKcT8uqDb-0XbzzioMYq8iFEQsm6fwZee1LJXfLApto8Mq-E1mH&amp;dco_ad_id=120237892963330295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247221154110296/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4116,7 +7436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/?dco_ad_token=Aapi5LUYJ66YPQtu8wCCqkj_NloXf31eqWUiqiNv-aQgbUB6ZV_PI2U2iAxb-IJOiGLoqwPH-Vd58J4Z&amp;dco_ad_id=120237893494860295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247221204110291/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4128,7 +7448,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/?dco_ad_token=Aarw8MxFPspt0ObKG96PHxCXj_tN88C6ZbD-jCFy0x84uCAcZNYBcn0azOm0IYyO44XJdD4iMqkre508&amp;dco_ad_id=120237893574550295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247217804110631/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4140,7 +7460,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/?dco_ad_token=AaoBopZZI9KGjA5oC_0ad31mxzo-SII-3kiWpAiEZPBSOr4NX3CeMv_lxyski_y7V-fIAdy1XXO39riB&amp;dco_ad_id=120237893574540295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1247221017443643/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4152,7 +7472,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/?dco_ad_token=Aao_A8ZV3eeKTZXgSBdKlYqamjH-5_6XhS2qIz6_oULUT4rqjyqaoHduwEsPlfVTnAf6OvRupEsopqhi&amp;dco_ad_id=120238666209760295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767226289022/</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4164,7 +7484,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/?dco_ad_token=AaosSe9H41gtCEqtBNabGyvpOA_Gnaet8VJDJiSmkEWKx3rG2GCY0CLBgoPfwzSJRiKRp99TkK6eIDHV&amp;dco_ad_id=120238667020540295</t>
+          <t>https://www.facebook.com/100064672685926/posts/1258767296289015/</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4188,7 +7508,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7rtgIL6/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4T7rtgIL6/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4200,7 +7520,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T7oagGqD/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4T7oagGqD/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4212,7 +7532,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4TbcNAFUD/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4TbcNAFUD/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4224,7 +7544,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ4T6V_AAuu/#advertiser</t>
+          <t>https://www.instagram.com/p/DQ4T6V_AAuu/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4236,7 +7556,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmY2BAIwj/#advertiser</t>
+          <t>https://www.instagram.com/p/DRcmY2BAIwj/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4248,7 +7568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmcJbgDUW/#advertiser</t>
+          <t>https://www.instagram.com/p/DRcmcJbgDUW/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4260,7 +7580,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRcmTd6gJGA/#advertiser</t>
+          <t>https://www.instagram.com/p/DRcmTd6gJGA/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
